--- a/target/test-classes/testdata/DataLogin.xlsx
+++ b/target/test-classes/testdata/DataLogin.xlsx
@@ -15,6 +15,7 @@
     <sheet name="bettaSup" sheetId="4" r:id="rId1"/>
     <sheet name="bettaMax" sheetId="5" r:id="rId2"/>
     <sheet name="dataProductlink" sheetId="6" r:id="rId3"/>
+    <sheet name="dataProduct" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>EMAIL</t>
   </si>
@@ -55,23 +56,56 @@
     <t>admin</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B01NGZQ9RT/ref=sspa_dk_detail_3?pd_rd_i=B01NGZQ9RT&amp;pd_rd_w=tqLfQ&amp;content-id=amzn1.sym.c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_p=c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_r=VR6WSZ308MKKTMWSZB8V&amp;pd_rd_wg=jcWVt&amp;pd_rd_r=66db0460-e747-4b10-8036-6047086cc190&amp;s=jewelry&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;th=1&amp;psc=1</t>
-  </si>
-  <si>
     <t>PRODUCT</t>
   </si>
   <si>
-    <t>PAVOI 14K Gold Plated X Ring Simulated Diamond CZ Criss Cross Ring for Women</t>
-  </si>
-  <si>
     <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>PROPERTY_NAME</t>
+  </si>
+  <si>
+    <t>Auto_Gold Plated Cubic Zirconia Diamond Pendant Necklace for Women</t>
+  </si>
+  <si>
+    <t>About this item ELEGANT SOLITAIRE PENDANT: Our Triangle solitaire pendant sparkles as it lays perfectly on your neck. Simple yet elegant design is a classic necklace for every woman! PREMIUM QUALITY Crafted with hand-selected Cubic Zirconia, our Simulated Solitaire Diamond Necklace sets perfectly on any neck size being 16"in length with a 2" Extender OUR SATISFACTION PROMISE: Your happiness is our number one priority. If you're not loving your product, let us know within 60 days so we can make it right! To get in touch, email or chat with us - a member of our team will be happy to help. SUSTAINABILITY: PAVOI is dedicated to sustainability throughout our entire product cycle. Our jewelry is made from 100% recycled materials and we package in 99% recycled materials. We work to reduce our carbon emissions and offset plastic consumption by removing 275,000 bottles from oceans annually. We are committed to maintaining a business that minimizes our environmental impact. PROUDLY AMERICAN-OWNED</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>PROPERTY_VALUE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0DQL4WS8G/ref=sspa_dk_detail_2?pd_rd_i=B0DQL4WS8G&amp;pd_rd_w=6Wscs&amp;content-id=amzn1.sym.c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_p=c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_r=BGKMHBF0SB0PP06EYGPZ&amp;pd_rd_wg=aH0EH&amp;pd_rd_r=1f5c7efe-de14-41df-9675-44fb20546792&amp;s=jewelry&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Auto_Moissanite Egagement Rings for Women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +122,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color rgb="FF0F1111"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -126,8 +170,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -416,13 +472,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="26.69921875" customWidth="1"/>
     <col min="2" max="2" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -430,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -438,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -464,13 +520,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="26.69921875" customWidth="1"/>
     <col min="2" max="2" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,35 +571,109 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="96.69921875" customWidth="1"/>
     <col min="2" max="2" width="64.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="55.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.296875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="32.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="6" customWidth="1"/>
+    <col min="3" max="8" width="20.19921875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="15.296875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="343.2">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6">
+        <v>110</v>
+      </c>
+      <c r="E2" s="6">
+        <v>120</v>
+      </c>
+      <c r="F2" s="6">
+        <v>52</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/target/test-classes/testdata/DataLogin.xlsx
+++ b/target/test-classes/testdata/DataLogin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23772" windowHeight="9108" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23772" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bettaSup" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>EMAIL</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Auto_Moissanite Egagement Rings for Women</t>
+  </si>
+  <si>
+    <t>STORE_NAME</t>
+  </si>
+  <si>
+    <t>Hien store</t>
   </si>
 </sst>
 </file>
@@ -514,27 +520,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="26.69921875" customWidth="1"/>
     <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,8 +554,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -570,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/testdata/DataLogin.xlsx
+++ b/target/test-classes/testdata/DataLogin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23772" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23772" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bettaSup" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>EMAIL</t>
   </si>
@@ -95,16 +95,19 @@
     <t>PROPERTY_VALUE</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B0DQL4WS8G/ref=sspa_dk_detail_2?pd_rd_i=B0DQL4WS8G&amp;pd_rd_w=6Wscs&amp;content-id=amzn1.sym.c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_p=c4606765-78ec-444e-9319-716ceb6c5a61&amp;pf_rd_r=BGKMHBF0SB0PP06EYGPZ&amp;pd_rd_wg=aH0EH&amp;pd_rd_r=1f5c7efe-de14-41df-9675-44fb20546792&amp;s=jewelry&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM&amp;th=1&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Auto_Moissanite Egagement Rings for Women</t>
-  </si>
-  <si>
     <t>STORE_NAME</t>
   </si>
   <si>
     <t>Hien store</t>
+  </si>
+  <si>
+    <t>THE PEARL SOURCE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07K68DMB6/ref=sspa_dk_detail_5?pd_rd_i=B07K68DMB6&amp;pd_rd_w=NQmCA&amp;content-id=amzn1.sym.7446a9d1-25fe-4460-b135-a60336bad2c9&amp;pf_rd_p=7446a9d1-25fe-4460-b135-a60336bad2c9&amp;pf_rd_r=JFE10JK4S54QJ0YKSD2X&amp;pd_rd_wg=KHVLU&amp;pd_rd_r=cc85439d-b533-4376-ad66-2825d63733e9&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw&amp;th=1</t>
+  </si>
+  <si>
+    <t>Tahitian Black Pearl Pendant Necklace 18K Gold Over Sterling Silver 19 Inch Adjustible Chain - Real Black Pearls Jewelry Gifts for Women Wife Mom Daughter</t>
   </si>
 </sst>
 </file>
@@ -138,11 +141,9 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="__Inter_d65c78"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,15 +167,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,8 +186,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -555,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -581,16 +585,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="96.69921875" customWidth="1"/>
-    <col min="2" max="2" width="64.296875" customWidth="1"/>
+    <col min="1" max="1" width="96.69921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="64.296875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -602,11 +607,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="55.2">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -625,66 +635,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.296875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" style="6" customWidth="1"/>
-    <col min="3" max="8" width="20.19921875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="15.296875" style="5"/>
+    <col min="1" max="1" width="32.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="5" customWidth="1"/>
+    <col min="3" max="8" width="20.19921875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="15.296875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="343.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>110</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>120</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>52</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
